--- a/data/pca/factorExposure/factorExposure_2008-12-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2008-12-16.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01876621574762144</v>
+        <v>-0.0174699428295355</v>
       </c>
       <c r="C2">
-        <v>0.01254600523249398</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.01386806191651067</v>
+      </c>
+      <c r="D2">
+        <v>-0.01964127406338944</v>
+      </c>
+      <c r="E2">
+        <v>-0.01765897293410234</v>
+      </c>
+      <c r="F2">
+        <v>0.008825606612564185</v>
+      </c>
+      <c r="G2">
+        <v>-0.007327719947494392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08040968936389593</v>
+        <v>-0.08370934140271846</v>
       </c>
       <c r="C4">
-        <v>0.08554699127222408</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.088022053486908</v>
+      </c>
+      <c r="D4">
+        <v>0.05206857331333051</v>
+      </c>
+      <c r="E4">
+        <v>-0.03674879919689322</v>
+      </c>
+      <c r="F4">
+        <v>-0.001747403252989708</v>
+      </c>
+      <c r="G4">
+        <v>-0.0431848354922274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.004933273948310244</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-0.001198185858735875</v>
+      </c>
+      <c r="D5">
+        <v>-0.0001301653471036333</v>
+      </c>
+      <c r="E5">
+        <v>0.005108187382085088</v>
+      </c>
+      <c r="F5">
+        <v>-0.003496286632389546</v>
+      </c>
+      <c r="G5">
+        <v>0.004058877380224587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1693869673885006</v>
+        <v>-0.1705084344154986</v>
       </c>
       <c r="C6">
-        <v>-0.01768832169435646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.008858984124721699</v>
+      </c>
+      <c r="D6">
+        <v>0.06415685647216977</v>
+      </c>
+      <c r="E6">
+        <v>0.05530100789585749</v>
+      </c>
+      <c r="F6">
+        <v>-0.05534705762828957</v>
+      </c>
+      <c r="G6">
+        <v>-0.03361523411248954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05129179930021382</v>
+        <v>-0.05353103306004554</v>
       </c>
       <c r="C7">
-        <v>0.06044617873759906</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.06187803764552382</v>
+      </c>
+      <c r="D7">
+        <v>0.05454279276804223</v>
+      </c>
+      <c r="E7">
+        <v>-0.06933641510478093</v>
+      </c>
+      <c r="F7">
+        <v>0.04628660509526954</v>
+      </c>
+      <c r="G7">
+        <v>-0.05632804757306037</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.04500776897087463</v>
+        <v>-0.04413405430484917</v>
       </c>
       <c r="C8">
-        <v>0.05734061624321174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.05504988025083176</v>
+      </c>
+      <c r="D8">
+        <v>-0.01930086726535709</v>
+      </c>
+      <c r="E8">
+        <v>-0.0292574427460852</v>
+      </c>
+      <c r="F8">
+        <v>0.01404357303762012</v>
+      </c>
+      <c r="G8">
+        <v>0.01784938313479494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.05739182568678221</v>
+        <v>-0.06249918955867574</v>
       </c>
       <c r="C9">
-        <v>0.09391524713742729</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.09399824430500978</v>
+      </c>
+      <c r="D9">
+        <v>0.08763269369944771</v>
+      </c>
+      <c r="E9">
+        <v>-0.05054720213411428</v>
+      </c>
+      <c r="F9">
+        <v>-0.01155615731922376</v>
+      </c>
+      <c r="G9">
+        <v>-0.01946481783942623</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.119710375849404</v>
+        <v>-0.1041822324153923</v>
       </c>
       <c r="C10">
-        <v>-0.1511426455704316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.136138884669935</v>
+      </c>
+      <c r="D10">
+        <v>-0.08140014185216064</v>
+      </c>
+      <c r="E10">
+        <v>-0.0550685925650453</v>
+      </c>
+      <c r="F10">
+        <v>0.02793109999400049</v>
+      </c>
+      <c r="G10">
+        <v>0.04088071432929945</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0789108436223618</v>
+        <v>-0.07624362611559514</v>
       </c>
       <c r="C11">
-        <v>0.1377531975940858</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.1366862153285302</v>
+      </c>
+      <c r="D11">
+        <v>0.04970779798584793</v>
+      </c>
+      <c r="E11">
+        <v>-0.0633170982128471</v>
+      </c>
+      <c r="F11">
+        <v>-0.007310284458839873</v>
+      </c>
+      <c r="G11">
+        <v>-0.0007052790888870923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.08019459055293206</v>
+        <v>-0.07613035966911259</v>
       </c>
       <c r="C12">
-        <v>0.1646053795727533</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.1613204521550362</v>
+      </c>
+      <c r="D12">
+        <v>0.04839564994953218</v>
+      </c>
+      <c r="E12">
+        <v>-0.06531974319723452</v>
+      </c>
+      <c r="F12">
+        <v>0.02844341994307736</v>
+      </c>
+      <c r="G12">
+        <v>-0.008008393524395497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.03932112843176504</v>
+        <v>-0.04151740472244391</v>
       </c>
       <c r="C13">
-        <v>0.07126304440859471</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.07544489085166112</v>
+      </c>
+      <c r="D13">
+        <v>0.03405825451546762</v>
+      </c>
+      <c r="E13">
+        <v>-0.07425608650470851</v>
+      </c>
+      <c r="F13">
+        <v>0.03636014654530278</v>
+      </c>
+      <c r="G13">
+        <v>-0.01961660525087042</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.02047567048946858</v>
+        <v>-0.02310276465431619</v>
       </c>
       <c r="C14">
-        <v>0.05070509828273744</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.05286705441728103</v>
+      </c>
+      <c r="D14">
+        <v>0.04430655546197506</v>
+      </c>
+      <c r="E14">
+        <v>-0.06949038798605056</v>
+      </c>
+      <c r="F14">
+        <v>-0.00424039810980825</v>
+      </c>
+      <c r="G14">
+        <v>0.01254566610020899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03343979237788897</v>
+        <v>-0.03326913275200746</v>
       </c>
       <c r="C15">
-        <v>0.06578114804557927</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.06347128389918126</v>
+      </c>
+      <c r="D15">
+        <v>0.0464835730353567</v>
+      </c>
+      <c r="E15">
+        <v>-0.01587163370045096</v>
+      </c>
+      <c r="F15">
+        <v>0.02972066182247032</v>
+      </c>
+      <c r="G15">
+        <v>-0.007082670067318773</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05565248515173218</v>
+        <v>-0.05423417789730871</v>
       </c>
       <c r="C16">
-        <v>0.1597697151535612</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.1588905311120991</v>
+      </c>
+      <c r="D16">
+        <v>0.04560733919186011</v>
+      </c>
+      <c r="E16">
+        <v>-0.04985970014603527</v>
+      </c>
+      <c r="F16">
+        <v>-0.01908859122908023</v>
+      </c>
+      <c r="G16">
+        <v>0.005367113856902713</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.008278029019947354</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.004334295112577303</v>
+      </c>
+      <c r="D17">
+        <v>-0.003125309135615744</v>
+      </c>
+      <c r="E17">
+        <v>0.01059292353057547</v>
+      </c>
+      <c r="F17">
+        <v>0.01384683305232706</v>
+      </c>
+      <c r="G17">
+        <v>0.01584965191491242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.04523993876907222</v>
+        <v>-0.05576647342952055</v>
       </c>
       <c r="C18">
-        <v>0.0549090227912627</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.04801701337827632</v>
+      </c>
+      <c r="D18">
+        <v>-3.824647371945083e-05</v>
+      </c>
+      <c r="E18">
+        <v>0.06159408995008715</v>
+      </c>
+      <c r="F18">
+        <v>-0.02366322894165433</v>
+      </c>
+      <c r="G18">
+        <v>-0.003855280215196557</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05866272634600991</v>
+        <v>-0.05762484674076565</v>
       </c>
       <c r="C20">
-        <v>0.1072806358285862</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.104459668488219</v>
+      </c>
+      <c r="D20">
+        <v>0.06590698438994433</v>
+      </c>
+      <c r="E20">
+        <v>-0.05088017008616547</v>
+      </c>
+      <c r="F20">
+        <v>0.02234792273234745</v>
+      </c>
+      <c r="G20">
+        <v>-0.002471885272069724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.0428233752787185</v>
+        <v>-0.04486711221091032</v>
       </c>
       <c r="C21">
-        <v>0.06957888710917094</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.06532987266141246</v>
+      </c>
+      <c r="D21">
+        <v>0.02685548996952558</v>
+      </c>
+      <c r="E21">
+        <v>-0.05371653547174679</v>
+      </c>
+      <c r="F21">
+        <v>-0.006121856394402348</v>
+      </c>
+      <c r="G21">
+        <v>-0.03091610610762018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04448183266023811</v>
+        <v>-0.04501669181110803</v>
       </c>
       <c r="C22">
-        <v>0.0380150050207949</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04007534342987722</v>
+      </c>
+      <c r="D22">
+        <v>-0.1117376083628171</v>
+      </c>
+      <c r="E22">
+        <v>0.05931038107364917</v>
+      </c>
+      <c r="F22">
+        <v>-0.1519568047321873</v>
+      </c>
+      <c r="G22">
+        <v>0.06767875489482036</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04449183227602451</v>
+        <v>-0.04502540567997464</v>
       </c>
       <c r="C23">
-        <v>0.03800786361619039</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.04006912690982291</v>
+      </c>
+      <c r="D23">
+        <v>-0.1117721584377338</v>
+      </c>
+      <c r="E23">
+        <v>0.05931001155497675</v>
+      </c>
+      <c r="F23">
+        <v>-0.1519856868810043</v>
+      </c>
+      <c r="G23">
+        <v>0.06774680597113156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06570394085920829</v>
+        <v>-0.06417177297222543</v>
       </c>
       <c r="C24">
-        <v>0.1432942154888364</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.1399769764612633</v>
+      </c>
+      <c r="D24">
+        <v>0.04975051834681948</v>
+      </c>
+      <c r="E24">
+        <v>-0.05976020732049309</v>
+      </c>
+      <c r="F24">
+        <v>0.003279341970438246</v>
+      </c>
+      <c r="G24">
+        <v>-0.002701601002214377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07168859749012806</v>
+        <v>-0.06916251414476471</v>
       </c>
       <c r="C25">
-        <v>0.1291486930532761</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.1266922128602238</v>
+      </c>
+      <c r="D25">
+        <v>0.05046816651971239</v>
+      </c>
+      <c r="E25">
+        <v>-0.0816573941430303</v>
+      </c>
+      <c r="F25">
+        <v>0.02717470677264226</v>
+      </c>
+      <c r="G25">
+        <v>-0.02872688709194126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05716394617649374</v>
+        <v>-0.06100870084437705</v>
       </c>
       <c r="C26">
-        <v>0.07407666121035468</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.07811299807189091</v>
+      </c>
+      <c r="D26">
+        <v>0.02232741943360045</v>
+      </c>
+      <c r="E26">
+        <v>-0.07287053903208342</v>
+      </c>
+      <c r="F26">
+        <v>0.02761889864333182</v>
+      </c>
+      <c r="G26">
+        <v>-0.003278709091970239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1727832491331743</v>
+        <v>-0.176963489864333</v>
       </c>
       <c r="C28">
-        <v>-0.2252661696449892</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.2273723573051227</v>
+      </c>
+      <c r="D28">
+        <v>0.01248797730685754</v>
+      </c>
+      <c r="E28">
+        <v>-0.1498277038136102</v>
+      </c>
+      <c r="F28">
+        <v>0.05750821631575116</v>
+      </c>
+      <c r="G28">
+        <v>0.021936197982356</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02547209207454261</v>
+        <v>-0.02705009376275633</v>
       </c>
       <c r="C29">
-        <v>0.05506733488533182</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.05515992383794852</v>
+      </c>
+      <c r="D29">
+        <v>0.01205842118246502</v>
+      </c>
+      <c r="E29">
+        <v>-0.07254112386708249</v>
+      </c>
+      <c r="F29">
+        <v>-0.00751723289409921</v>
+      </c>
+      <c r="G29">
+        <v>0.01274133023808279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03024528834213478</v>
+        <v>-0.03381451331621593</v>
       </c>
       <c r="C30">
-        <v>0.07051523491637267</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.07489430255032806</v>
+      </c>
+      <c r="D30">
+        <v>0.1273555724065642</v>
+      </c>
+      <c r="E30">
+        <v>-0.06724881960965184</v>
+      </c>
+      <c r="F30">
+        <v>0.07044712292333827</v>
+      </c>
+      <c r="G30">
+        <v>-0.01577703955874463</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05448987802546754</v>
+        <v>-0.05337159455439074</v>
       </c>
       <c r="C31">
-        <v>0.0372333090461031</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.03942349486650346</v>
+      </c>
+      <c r="D31">
+        <v>-0.004422268167443768</v>
+      </c>
+      <c r="E31">
+        <v>-0.01637487398101379</v>
+      </c>
+      <c r="F31">
+        <v>-0.05217302905175648</v>
+      </c>
+      <c r="G31">
+        <v>-0.01177338168197522</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04360048615720637</v>
+        <v>-0.04697131195585623</v>
       </c>
       <c r="C32">
-        <v>0.05862476286912909</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.0566843097745163</v>
+      </c>
+      <c r="D32">
+        <v>0.0140729689254119</v>
+      </c>
+      <c r="E32">
+        <v>-0.0008695093982674417</v>
+      </c>
+      <c r="F32">
+        <v>0.04353062151850171</v>
+      </c>
+      <c r="G32">
+        <v>-0.001263173113781404</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07928326281781266</v>
+        <v>-0.08344699912662731</v>
       </c>
       <c r="C33">
-        <v>0.1140100952273937</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.1222080340787313</v>
+      </c>
+      <c r="D33">
+        <v>0.05670977820613114</v>
+      </c>
+      <c r="E33">
+        <v>-0.05623456991857525</v>
+      </c>
+      <c r="F33">
+        <v>-0.0002893802424751467</v>
+      </c>
+      <c r="G33">
+        <v>0.01724626200611823</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05091162595714704</v>
+        <v>-0.05031030088784248</v>
       </c>
       <c r="C34">
-        <v>0.1352953182307447</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.1338546133873522</v>
+      </c>
+      <c r="D34">
+        <v>0.09164850621714475</v>
+      </c>
+      <c r="E34">
+        <v>-0.04769273722728248</v>
+      </c>
+      <c r="F34">
+        <v>-0.0190041449698845</v>
+      </c>
+      <c r="G34">
+        <v>0.02937874929330495</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02920862259615603</v>
+        <v>-0.03116436984111463</v>
       </c>
       <c r="C35">
-        <v>0.01856816797356041</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.02120669728905225</v>
+      </c>
+      <c r="D35">
+        <v>0.01449545059380951</v>
+      </c>
+      <c r="E35">
+        <v>-0.02079588597198889</v>
+      </c>
+      <c r="F35">
+        <v>0.008632105119601377</v>
+      </c>
+      <c r="G35">
+        <v>0.02371914101190029</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02739453056859362</v>
+        <v>-0.0297138166077521</v>
       </c>
       <c r="C36">
-        <v>0.05603573477796765</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.05431097990170682</v>
+      </c>
+      <c r="D36">
+        <v>0.0742301489473471</v>
+      </c>
+      <c r="E36">
+        <v>0.00848439057111073</v>
+      </c>
+      <c r="F36">
+        <v>-0.02580806565955436</v>
+      </c>
+      <c r="G36">
+        <v>0.05956675290714829</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0.0004225464184721771</v>
+        <v>-0.004516222680364547</v>
       </c>
       <c r="C37">
-        <v>-0.0004141139138852605</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.0077417615088649</v>
+      </c>
+      <c r="D37">
+        <v>0.0008853406768083237</v>
+      </c>
+      <c r="E37">
+        <v>-0.01201331778606304</v>
+      </c>
+      <c r="F37">
+        <v>0.0002863779331362324</v>
+      </c>
+      <c r="G37">
+        <v>-0.004661414425450684</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.07992515170586119</v>
+        <v>-0.07504083061642616</v>
       </c>
       <c r="C39">
-        <v>0.157958497320128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.1513604011157411</v>
+      </c>
+      <c r="D39">
+        <v>0.006548987194174222</v>
+      </c>
+      <c r="E39">
+        <v>-0.1178017256543172</v>
+      </c>
+      <c r="F39">
+        <v>-0.004456406559096605</v>
+      </c>
+      <c r="G39">
+        <v>-0.02070937844824279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.05038359678818414</v>
+        <v>-0.05336567570288481</v>
       </c>
       <c r="C40">
-        <v>0.07484995795189167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.07951380294580196</v>
+      </c>
+      <c r="D40">
+        <v>0.01639151931528275</v>
+      </c>
+      <c r="E40">
+        <v>-0.03592724357187713</v>
+      </c>
+      <c r="F40">
+        <v>0.05203242403103755</v>
+      </c>
+      <c r="G40">
+        <v>0.03665939235524317</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03051539057497476</v>
+        <v>-0.03019208566078188</v>
       </c>
       <c r="C41">
-        <v>0.02329087662368431</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.02490951841587884</v>
+      </c>
+      <c r="D41">
+        <v>-0.007048796087420717</v>
+      </c>
+      <c r="E41">
+        <v>0.01249055326044432</v>
+      </c>
+      <c r="F41">
+        <v>0.009816245206605449</v>
+      </c>
+      <c r="G41">
+        <v>0.006814801547221812</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04445577863507221</v>
+        <v>-0.04239664425910627</v>
       </c>
       <c r="C43">
-        <v>0.04127004668039429</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.03914882249910742</v>
+      </c>
+      <c r="D43">
+        <v>-0.01614625957979948</v>
+      </c>
+      <c r="E43">
+        <v>-0.01755463954542374</v>
+      </c>
+      <c r="F43">
+        <v>-0.03964238914224823</v>
+      </c>
+      <c r="G43">
+        <v>0.01907252656585947</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05542159082942211</v>
+        <v>-0.05945240855936083</v>
       </c>
       <c r="C44">
-        <v>0.09220688549443319</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.09491489853039425</v>
+      </c>
+      <c r="D44">
+        <v>0.3226305615065257</v>
+      </c>
+      <c r="E44">
+        <v>-0.07179051064010977</v>
+      </c>
+      <c r="F44">
+        <v>-0.005810172807302423</v>
+      </c>
+      <c r="G44">
+        <v>0.10893230659743</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0006591314346746325</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>-0.001273154230183623</v>
+      </c>
+      <c r="D45">
+        <v>-0.00120387652803205</v>
+      </c>
+      <c r="E45">
+        <v>-0.00163330356244095</v>
+      </c>
+      <c r="F45">
+        <v>-0.00223020848989134</v>
+      </c>
+      <c r="G45">
+        <v>-0.007205564783394197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02857588519036204</v>
+        <v>-0.0298830235627522</v>
       </c>
       <c r="C46">
-        <v>0.04482942395343467</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.04247222007061727</v>
+      </c>
+      <c r="D46">
+        <v>-0.006735507375391358</v>
+      </c>
+      <c r="E46">
+        <v>-0.06109125814997882</v>
+      </c>
+      <c r="F46">
+        <v>-0.03059774805168205</v>
+      </c>
+      <c r="G46">
+        <v>-0.0004759719457326266</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05563627936924612</v>
+        <v>-0.05310828753385793</v>
       </c>
       <c r="C47">
-        <v>0.04343099137518364</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.04207386014346196</v>
+      </c>
+      <c r="D47">
+        <v>-0.04254180295037403</v>
+      </c>
+      <c r="E47">
+        <v>0.01905147551744202</v>
+      </c>
+      <c r="F47">
+        <v>-0.0835472043830002</v>
+      </c>
+      <c r="G47">
+        <v>0.004850509675097185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04813264476306301</v>
+        <v>-0.04978477446467579</v>
       </c>
       <c r="C48">
-        <v>0.07064460591601796</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.07046249662761306</v>
+      </c>
+      <c r="D48">
+        <v>0.0369803197233143</v>
+      </c>
+      <c r="E48">
+        <v>-0.05840214785453059</v>
+      </c>
+      <c r="F48">
+        <v>0.0007317598354615523</v>
+      </c>
+      <c r="G48">
+        <v>-0.04788709786257109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1853768971462486</v>
+        <v>-0.1923238322731878</v>
       </c>
       <c r="C49">
-        <v>-0.02878971019001767</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.02547659188409368</v>
+      </c>
+      <c r="D49">
+        <v>0.02622207968028302</v>
+      </c>
+      <c r="E49">
+        <v>0.01165940857236428</v>
+      </c>
+      <c r="F49">
+        <v>0.1313517327253769</v>
+      </c>
+      <c r="G49">
+        <v>-0.02430309634357677</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05352693240382673</v>
+        <v>-0.05315442590183572</v>
       </c>
       <c r="C50">
-        <v>0.03684358927913517</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.0396329625953691</v>
+      </c>
+      <c r="D50">
+        <v>0.01057903495778221</v>
+      </c>
+      <c r="E50">
+        <v>-0.008372752172167347</v>
+      </c>
+      <c r="F50">
+        <v>-0.04472922997031407</v>
+      </c>
+      <c r="G50">
+        <v>-0.02249446298362561</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1399762610274533</v>
+        <v>-0.1351778853848468</v>
       </c>
       <c r="C52">
-        <v>0.03664454501332529</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.03496034357190519</v>
+      </c>
+      <c r="D52">
+        <v>0.02713385815832767</v>
+      </c>
+      <c r="E52">
+        <v>0.08737972474931052</v>
+      </c>
+      <c r="F52">
+        <v>-0.1212258528243531</v>
+      </c>
+      <c r="G52">
+        <v>-0.02798755313856812</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1668702007244739</v>
+        <v>-0.1608215420695187</v>
       </c>
       <c r="C53">
-        <v>-0.01117585562910199</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.009654490817182851</v>
+      </c>
+      <c r="D53">
+        <v>0.04397575744590651</v>
+      </c>
+      <c r="E53">
+        <v>0.1264644320024724</v>
+      </c>
+      <c r="F53">
+        <v>-0.158367317781916</v>
+      </c>
+      <c r="G53">
+        <v>-0.06434872442952824</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01271266511131206</v>
+        <v>-0.0136850674122778</v>
       </c>
       <c r="C54">
-        <v>0.040485075891403</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.04170105652386304</v>
+      </c>
+      <c r="D54">
+        <v>0.01635852873007265</v>
+      </c>
+      <c r="E54">
+        <v>-0.03844447160949473</v>
+      </c>
+      <c r="F54">
+        <v>0.000733033705455995</v>
+      </c>
+      <c r="G54">
+        <v>-0.003269343215470582</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.121569427375792</v>
+        <v>-0.1196991195162482</v>
       </c>
       <c r="C55">
-        <v>0.01795512406248138</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01901569520243039</v>
+      </c>
+      <c r="D55">
+        <v>0.03339536823751071</v>
+      </c>
+      <c r="E55">
+        <v>0.05794562206728356</v>
+      </c>
+      <c r="F55">
+        <v>-0.1848977281464045</v>
+      </c>
+      <c r="G55">
+        <v>-0.05988933520268339</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1799825511672066</v>
+        <v>-0.1753435637446016</v>
       </c>
       <c r="C56">
-        <v>-0.008909638885450514</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.01068070050786023</v>
+      </c>
+      <c r="D56">
+        <v>0.002659659935602092</v>
+      </c>
+      <c r="E56">
+        <v>0.1577050948472067</v>
+      </c>
+      <c r="F56">
+        <v>-0.1643222412783348</v>
+      </c>
+      <c r="G56">
+        <v>-0.08976992341932019</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04157456604078354</v>
+        <v>-0.04156059631523549</v>
       </c>
       <c r="C58">
-        <v>0.09707146841958192</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.1077672327658269</v>
+      </c>
+      <c r="D58">
+        <v>-0.01067349774792872</v>
+      </c>
+      <c r="E58">
+        <v>-0.04112146689885059</v>
+      </c>
+      <c r="F58">
+        <v>-0.006083696494244225</v>
+      </c>
+      <c r="G58">
+        <v>0.002099982812777504</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1827113490238266</v>
+        <v>-0.1888863941867285</v>
       </c>
       <c r="C59">
-        <v>-0.1632953705274914</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.1690112276486762</v>
+      </c>
+      <c r="D59">
+        <v>-0.09441950825639026</v>
+      </c>
+      <c r="E59">
+        <v>-0.07616410978732086</v>
+      </c>
+      <c r="F59">
+        <v>0.02902266867751968</v>
+      </c>
+      <c r="G59">
+        <v>0.01034516951392811</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2066035638815439</v>
+        <v>-0.2051438298627599</v>
       </c>
       <c r="C60">
-        <v>0.0001209795346629211</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.003402057249466825</v>
+      </c>
+      <c r="D60">
+        <v>-0.1062287773057875</v>
+      </c>
+      <c r="E60">
+        <v>0.1412646845007312</v>
+      </c>
+      <c r="F60">
+        <v>0.07261053042927589</v>
+      </c>
+      <c r="G60">
+        <v>-0.07957495214134518</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06155474535540074</v>
+        <v>-0.05964845354778461</v>
       </c>
       <c r="C61">
-        <v>0.1342723219244431</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.1309860455923414</v>
+      </c>
+      <c r="D61">
+        <v>0.01231724361638101</v>
+      </c>
+      <c r="E61">
+        <v>-0.0746661287992669</v>
+      </c>
+      <c r="F61">
+        <v>0.0293516020565224</v>
+      </c>
+      <c r="G61">
+        <v>-0.01036529701419772</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1697348195105298</v>
+        <v>-0.1662279711245844</v>
       </c>
       <c r="C62">
-        <v>-0.005340928942071835</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.005449269238123286</v>
+      </c>
+      <c r="D62">
+        <v>0.004761885266011063</v>
+      </c>
+      <c r="E62">
+        <v>0.1352355779027617</v>
+      </c>
+      <c r="F62">
+        <v>-0.1547752337324553</v>
+      </c>
+      <c r="G62">
+        <v>-0.06697299367030533</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04141211534704062</v>
+        <v>-0.04397938413414994</v>
       </c>
       <c r="C63">
-        <v>0.07978180890377944</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.08328563237776188</v>
+      </c>
+      <c r="D63">
+        <v>0.02203135589994961</v>
+      </c>
+      <c r="E63">
+        <v>-0.03890632103042156</v>
+      </c>
+      <c r="F63">
+        <v>0.008316719984906292</v>
+      </c>
+      <c r="G63">
+        <v>0.03104471389040812</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1139354601439678</v>
+        <v>-0.1113022910920696</v>
       </c>
       <c r="C64">
-        <v>0.06340940921494834</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.06526927187554712</v>
+      </c>
+      <c r="D64">
+        <v>0.01928502617749301</v>
+      </c>
+      <c r="E64">
+        <v>0.05192571666367324</v>
+      </c>
+      <c r="F64">
+        <v>0.01485750163185469</v>
+      </c>
+      <c r="G64">
+        <v>-0.0280790386691073</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1600357324055211</v>
+        <v>-0.1629532647404803</v>
       </c>
       <c r="C65">
-        <v>-0.05599724254296166</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04599198890272849</v>
+      </c>
+      <c r="D65">
+        <v>0.06468764297626892</v>
+      </c>
+      <c r="E65">
+        <v>-0.00112266268697811</v>
+      </c>
+      <c r="F65">
+        <v>-0.05293729741712821</v>
+      </c>
+      <c r="G65">
+        <v>-0.03037044970078641</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.09692997905498156</v>
+        <v>-0.09244994992186259</v>
       </c>
       <c r="C66">
-        <v>0.1320098025023479</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.1303727632759709</v>
+      </c>
+      <c r="D66">
+        <v>0.0270224983634554</v>
+      </c>
+      <c r="E66">
+        <v>-0.1014933656507323</v>
+      </c>
+      <c r="F66">
+        <v>0.01617041641565375</v>
+      </c>
+      <c r="G66">
+        <v>0.0126831492375664</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05169629349126536</v>
+        <v>-0.04486728748648291</v>
       </c>
       <c r="C67">
-        <v>0.08303458712830533</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.07634149664204556</v>
+      </c>
+      <c r="D67">
+        <v>-0.07982797937081748</v>
+      </c>
+      <c r="E67">
+        <v>0.03028505865813696</v>
+      </c>
+      <c r="F67">
+        <v>-0.05295607101466621</v>
+      </c>
+      <c r="G67">
+        <v>0.04638149879409745</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.146594783949117</v>
+        <v>-0.1467993874617567</v>
       </c>
       <c r="C68">
-        <v>-0.250947187655966</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.2468421613575531</v>
+      </c>
+      <c r="D68">
+        <v>0.0288835322037483</v>
+      </c>
+      <c r="E68">
+        <v>-0.1555485258448299</v>
+      </c>
+      <c r="F68">
+        <v>0.06120380636114665</v>
+      </c>
+      <c r="G68">
+        <v>-0.05090485446640561</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.04005927978078006</v>
+        <v>-0.03788885652650355</v>
       </c>
       <c r="C69">
-        <v>0.01597988904330221</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.01861388559031591</v>
+      </c>
+      <c r="D69">
+        <v>-0.01886275820369174</v>
+      </c>
+      <c r="E69">
+        <v>0.05931792142449623</v>
+      </c>
+      <c r="F69">
+        <v>-0.05088754114284266</v>
+      </c>
+      <c r="G69">
+        <v>0.04266140718910055</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07641189951146375</v>
+        <v>-0.07383303926315787</v>
       </c>
       <c r="C70">
-        <v>0.09220315403392562</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.09470727685741458</v>
+      </c>
+      <c r="D70">
+        <v>-0.6532178448729322</v>
+      </c>
+      <c r="E70">
+        <v>0.1734191668744164</v>
+      </c>
+      <c r="F70">
+        <v>0.22736021339669</v>
+      </c>
+      <c r="G70">
+        <v>-0.4187141021816656</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1687213807634219</v>
+        <v>-0.1708723633367468</v>
       </c>
       <c r="C71">
-        <v>-0.2529182090312448</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.2505199092611667</v>
+      </c>
+      <c r="D71">
+        <v>0.01870270423115353</v>
+      </c>
+      <c r="E71">
+        <v>-0.1612425358189748</v>
+      </c>
+      <c r="F71">
+        <v>0.07321566818774411</v>
+      </c>
+      <c r="G71">
+        <v>-0.04319920107828246</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1436045945180731</v>
+        <v>-0.1488032454821337</v>
       </c>
       <c r="C72">
-        <v>0.01099213987889879</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.009855344173580461</v>
+      </c>
+      <c r="D72">
+        <v>0.03174345587385768</v>
+      </c>
+      <c r="E72">
+        <v>0.04167649590539004</v>
+      </c>
+      <c r="F72">
+        <v>-0.115008229453277</v>
+      </c>
+      <c r="G72">
+        <v>0.03153108583729505</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1885202030151182</v>
+        <v>-0.1979956592823212</v>
       </c>
       <c r="C73">
-        <v>0.01750582323951057</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.02011075276326881</v>
+      </c>
+      <c r="D73">
+        <v>0.008239132002073053</v>
+      </c>
+      <c r="E73">
+        <v>0.1076350783155767</v>
+      </c>
+      <c r="F73">
+        <v>-0.004827597106738341</v>
+      </c>
+      <c r="G73">
+        <v>0.03320576413432279</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08522725991603275</v>
+        <v>-0.08467862759647923</v>
       </c>
       <c r="C74">
-        <v>0.007481655139786175</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.01353512146582191</v>
+      </c>
+      <c r="D74">
+        <v>0.05104351606644285</v>
+      </c>
+      <c r="E74">
+        <v>0.09487445926466107</v>
+      </c>
+      <c r="F74">
+        <v>-0.06077614003739747</v>
+      </c>
+      <c r="G74">
+        <v>-0.007334118306560661</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.120259312561134</v>
+        <v>-0.1128625873698673</v>
       </c>
       <c r="C75">
-        <v>0.02666798427758605</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02707138253970448</v>
+      </c>
+      <c r="D75">
+        <v>0.004992888702081386</v>
+      </c>
+      <c r="E75">
+        <v>0.09147419209826806</v>
+      </c>
+      <c r="F75">
+        <v>-0.1702812658091023</v>
+      </c>
+      <c r="G75">
+        <v>-0.01730906162234102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07881169440412569</v>
+        <v>-0.0865435111833439</v>
       </c>
       <c r="C77">
-        <v>0.1235240281310184</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.1290988448054573</v>
+      </c>
+      <c r="D77">
+        <v>0.03651944307121228</v>
+      </c>
+      <c r="E77">
+        <v>-0.0972130815765547</v>
+      </c>
+      <c r="F77">
+        <v>0.05928172547789543</v>
+      </c>
+      <c r="G77">
+        <v>-0.1085064510128359</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.07538847883324981</v>
+        <v>-0.08211430725196579</v>
       </c>
       <c r="C78">
-        <v>0.1283765931160668</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.1308799127411899</v>
+      </c>
+      <c r="D78">
+        <v>0.02479166688143629</v>
+      </c>
+      <c r="E78">
+        <v>-0.09901825451431696</v>
+      </c>
+      <c r="F78">
+        <v>-0.06135519367637575</v>
+      </c>
+      <c r="G78">
+        <v>-0.01793153268506664</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1688243887371062</v>
+        <v>-0.1642688843875415</v>
       </c>
       <c r="C79">
-        <v>0.02056373947995632</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.02017560000118512</v>
+      </c>
+      <c r="D79">
+        <v>0.0004205561333919532</v>
+      </c>
+      <c r="E79">
+        <v>0.07187060616109681</v>
+      </c>
+      <c r="F79">
+        <v>-0.1443717578213619</v>
+      </c>
+      <c r="G79">
+        <v>-0.03193719826775811</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07818349587142705</v>
+        <v>-0.07403123151517774</v>
       </c>
       <c r="C80">
-        <v>0.08445916451801169</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.08040204524818788</v>
+      </c>
+      <c r="D80">
+        <v>0.00676886044324378</v>
+      </c>
+      <c r="E80">
+        <v>-0.05273884013674879</v>
+      </c>
+      <c r="F80">
+        <v>0.0721444307396753</v>
+      </c>
+      <c r="G80">
+        <v>0.09778983256526529</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1126608121187256</v>
+        <v>-0.1058254076732828</v>
       </c>
       <c r="C81">
-        <v>-0.01135800609171427</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.01117896324052662</v>
+      </c>
+      <c r="D81">
+        <v>-0.01771058349096177</v>
+      </c>
+      <c r="E81">
+        <v>0.1109885955255543</v>
+      </c>
+      <c r="F81">
+        <v>-0.1496094515529018</v>
+      </c>
+      <c r="G81">
+        <v>0.0319032464278764</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1615520201725542</v>
+        <v>-0.157239192831535</v>
       </c>
       <c r="C82">
-        <v>-0.0161685399658413</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.01434415695571852</v>
+      </c>
+      <c r="D82">
+        <v>0.08187205691858397</v>
+      </c>
+      <c r="E82">
+        <v>0.1468579601940092</v>
+      </c>
+      <c r="F82">
+        <v>-0.1223607401151908</v>
+      </c>
+      <c r="G82">
+        <v>-0.03808721944987374</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05256720677197289</v>
+        <v>-0.04960192458132132</v>
       </c>
       <c r="C83">
-        <v>0.06496971774996727</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.05940670907098168</v>
+      </c>
+      <c r="D83">
+        <v>-0.03330125420216776</v>
+      </c>
+      <c r="E83">
+        <v>-0.005659386277056351</v>
+      </c>
+      <c r="F83">
+        <v>0.01972249123238292</v>
+      </c>
+      <c r="G83">
+        <v>-0.003113044066697013</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.04469221191993648</v>
+        <v>-0.04395591705956117</v>
       </c>
       <c r="C84">
-        <v>0.07271666053935261</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.07138159175835693</v>
+      </c>
+      <c r="D84">
+        <v>-0.02128141614448313</v>
+      </c>
+      <c r="E84">
+        <v>0.007508246760193306</v>
+      </c>
+      <c r="F84">
+        <v>-0.03068901077970265</v>
+      </c>
+      <c r="G84">
+        <v>-0.02236024052486086</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1401040215314023</v>
+        <v>-0.13509844635941</v>
       </c>
       <c r="C85">
-        <v>0.007822120199381166</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.008398720408270355</v>
+      </c>
+      <c r="D85">
+        <v>0.06912197767333908</v>
+      </c>
+      <c r="E85">
+        <v>0.06825747972128757</v>
+      </c>
+      <c r="F85">
+        <v>-0.1487268357174061</v>
+      </c>
+      <c r="G85">
+        <v>-0.03763627470560391</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08454480832533189</v>
+        <v>-0.08495634932994271</v>
       </c>
       <c r="C86">
-        <v>0.1473176655589274</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.1545876375030717</v>
+      </c>
+      <c r="D86">
+        <v>-0.5224717488073772</v>
+      </c>
+      <c r="E86">
+        <v>-0.4635889284796786</v>
+      </c>
+      <c r="F86">
+        <v>-0.2682399667407327</v>
+      </c>
+      <c r="G86">
+        <v>0.4713043717758676</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.08891061879948296</v>
+        <v>-0.08426631791710733</v>
       </c>
       <c r="C87">
-        <v>0.1090092178554266</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.1056539832510685</v>
+      </c>
+      <c r="D87">
+        <v>0.1255176008660424</v>
+      </c>
+      <c r="E87">
+        <v>-0.1005440285753583</v>
+      </c>
+      <c r="F87">
+        <v>0.2108199450267098</v>
+      </c>
+      <c r="G87">
+        <v>-0.02361881458377433</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05969824133830051</v>
+        <v>-0.05913577320517306</v>
       </c>
       <c r="C88">
-        <v>0.06335305939989798</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.06390774426235366</v>
+      </c>
+      <c r="D88">
+        <v>0.002703154030516539</v>
+      </c>
+      <c r="E88">
+        <v>0.03156472565790387</v>
+      </c>
+      <c r="F88">
+        <v>-0.03080050696210818</v>
+      </c>
+      <c r="G88">
+        <v>-0.01951131043176255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1544019935193927</v>
+        <v>-0.1533413772388048</v>
       </c>
       <c r="C89">
-        <v>-0.1979159845008885</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.204859722916028</v>
+      </c>
+      <c r="D89">
+        <v>0.02535859753975034</v>
+      </c>
+      <c r="E89">
+        <v>-0.1034065359576175</v>
+      </c>
+      <c r="F89">
+        <v>0.06016840310579754</v>
+      </c>
+      <c r="G89">
+        <v>-0.01193975011211718</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1868155411076245</v>
+        <v>-0.1886883735356099</v>
       </c>
       <c r="C90">
-        <v>-0.2321619435640473</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.2323851870838267</v>
+      </c>
+      <c r="D90">
+        <v>0.02390976644553523</v>
+      </c>
+      <c r="E90">
+        <v>-0.1869100250963046</v>
+      </c>
+      <c r="F90">
+        <v>0.1129226692189283</v>
+      </c>
+      <c r="G90">
+        <v>-0.02254234996907453</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1257545535673662</v>
+        <v>-0.1195464741323318</v>
       </c>
       <c r="C91">
-        <v>-0.02095729168022026</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.02043800111778068</v>
+      </c>
+      <c r="D91">
+        <v>-0.03779166957568967</v>
+      </c>
+      <c r="E91">
+        <v>0.1326826158686437</v>
+      </c>
+      <c r="F91">
+        <v>-0.1703302357494477</v>
+      </c>
+      <c r="G91">
+        <v>0.04494000694540559</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1749201547811783</v>
+        <v>-0.1759765830947269</v>
       </c>
       <c r="C92">
-        <v>-0.2559503796630409</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.2663676574696066</v>
+      </c>
+      <c r="D92">
+        <v>0.003702385476515086</v>
+      </c>
+      <c r="E92">
+        <v>-0.2140684214181479</v>
+      </c>
+      <c r="F92">
+        <v>0.04379065107620976</v>
+      </c>
+      <c r="G92">
+        <v>-0.02965444036038872</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1793253700085201</v>
+        <v>-0.185773665882304</v>
       </c>
       <c r="C93">
-        <v>-0.2208127205165186</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.2222312418630691</v>
+      </c>
+      <c r="D93">
+        <v>-0.01205993339013641</v>
+      </c>
+      <c r="E93">
+        <v>-0.11617295132379</v>
+      </c>
+      <c r="F93">
+        <v>0.01940833462182844</v>
+      </c>
+      <c r="G93">
+        <v>-0.04926845640444594</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1183128355525983</v>
+        <v>-0.1131394581344127</v>
       </c>
       <c r="C94">
-        <v>0.03332086200482057</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03280309912189427</v>
+      </c>
+      <c r="D94">
+        <v>0.003335273551427486</v>
+      </c>
+      <c r="E94">
+        <v>0.08290845505594563</v>
+      </c>
+      <c r="F94">
+        <v>-0.1574160197613612</v>
+      </c>
+      <c r="G94">
+        <v>-0.01174838773540851</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1200105904325802</v>
+        <v>-0.1190685089438495</v>
       </c>
       <c r="C95">
-        <v>0.1073611542616265</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.1179119225463361</v>
+      </c>
+      <c r="D95">
+        <v>0.0002843051145201005</v>
+      </c>
+      <c r="E95">
+        <v>-0.08444708522585598</v>
+      </c>
+      <c r="F95">
+        <v>0.009775138176129542</v>
+      </c>
+      <c r="G95">
+        <v>-0.003699086299689417</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1171591121796683</v>
+        <v>-0.115239127563569</v>
       </c>
       <c r="C96">
-        <v>0.1209705928701156</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.1239979666439016</v>
+      </c>
+      <c r="D96">
+        <v>-0.04301364491363508</v>
+      </c>
+      <c r="E96">
+        <v>0.01649824839272626</v>
+      </c>
+      <c r="F96">
+        <v>0.0227254046286828</v>
+      </c>
+      <c r="G96">
+        <v>-0.1360861675835252</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.2042542006522401</v>
+        <v>-0.208361919555111</v>
       </c>
       <c r="C97">
-        <v>0.000473382701430855</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.006868535712474243</v>
+      </c>
+      <c r="D97">
+        <v>-0.03549393384033962</v>
+      </c>
+      <c r="E97">
+        <v>0.4332640943190614</v>
+      </c>
+      <c r="F97">
+        <v>0.428070455357393</v>
+      </c>
+      <c r="G97">
+        <v>0.662887613325449</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1962059354685144</v>
+        <v>-0.2040588210409879</v>
       </c>
       <c r="C98">
-        <v>0.02295414660937182</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.02388256037881763</v>
+      </c>
+      <c r="D98">
+        <v>-0.07463200185564121</v>
+      </c>
+      <c r="E98">
+        <v>0.05787970961267166</v>
+      </c>
+      <c r="F98">
+        <v>0.1911952743135562</v>
+      </c>
+      <c r="G98">
+        <v>-0.04169824919530622</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.04949182614353425</v>
+        <v>-0.04940843725073408</v>
       </c>
       <c r="C99">
-        <v>0.0601902206119913</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.06027004463909061</v>
+      </c>
+      <c r="D99">
+        <v>0.01768428097839215</v>
+      </c>
+      <c r="E99">
+        <v>-0.02865397666168346</v>
+      </c>
+      <c r="F99">
+        <v>0.01968680390993279</v>
+      </c>
+      <c r="G99">
+        <v>-0.004227502522813179</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1017118451023235</v>
+        <v>-0.09858344452545315</v>
       </c>
       <c r="C100">
-        <v>0.3048492842128976</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.2926220625571639</v>
+      </c>
+      <c r="D100">
+        <v>-0.0004933108119604556</v>
+      </c>
+      <c r="E100">
+        <v>-0.06130252376332276</v>
+      </c>
+      <c r="F100">
+        <v>0.3785259047602388</v>
+      </c>
+      <c r="G100">
+        <v>-0.1513805997279501</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02540295867610101</v>
+        <v>-0.0269879802673169</v>
       </c>
       <c r="C101">
-        <v>0.05445183152356579</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.05450655735619055</v>
+      </c>
+      <c r="D101">
+        <v>0.006723800274152687</v>
+      </c>
+      <c r="E101">
+        <v>-0.06859184101080508</v>
+      </c>
+      <c r="F101">
+        <v>-0.007747220661838758</v>
+      </c>
+      <c r="G101">
+        <v>0.009666048811695829</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
